--- a/clean data/pop-inc-rent-rc-if-allyear-clean.xlsx
+++ b/clean data/pop-inc-rent-rc-if-allyear-clean.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Prpo21-Team\clean data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C64E1-901D-408A-ABD8-CA29931AB41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969C7E03-09F2-48D4-A70C-5C4C9512B36F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1270</v>
+        <v>1419</v>
       </c>
       <c r="C6" s="1">
-        <v>56623</v>
+        <v>87385</v>
       </c>
       <c r="D6" s="1">
-        <v>73981</v>
+        <v>112824</v>
       </c>
       <c r="E6" s="1">
         <v>1199</v>
@@ -1470,13 +1470,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>1419</v>
+        <v>1174</v>
       </c>
       <c r="C7" s="1">
-        <v>87385</v>
+        <v>59890</v>
       </c>
       <c r="D7" s="1">
-        <v>112824</v>
+        <v>214613</v>
       </c>
       <c r="E7" s="1">
         <v>1528</v>
@@ -1568,13 +1568,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>1174</v>
+        <v>1336</v>
       </c>
       <c r="C8" s="1">
-        <v>59890</v>
+        <v>95941</v>
       </c>
       <c r="D8" s="1">
-        <v>214613</v>
+        <v>144549</v>
       </c>
       <c r="E8" s="1">
         <v>1226</v>
@@ -1666,13 +1666,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>1336</v>
+        <v>991</v>
       </c>
       <c r="C9" s="1">
-        <v>95941</v>
+        <v>49190</v>
       </c>
       <c r="D9" s="1">
-        <v>144549</v>
+        <v>81178</v>
       </c>
       <c r="E9" s="1">
         <v>1419</v>
@@ -1764,13 +1764,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>991</v>
+        <v>1469</v>
       </c>
       <c r="C10" s="1">
-        <v>49190</v>
+        <v>109662</v>
       </c>
       <c r="D10" s="1">
-        <v>81178</v>
+        <v>391672</v>
       </c>
       <c r="E10" s="1">
         <v>1049</v>
@@ -1862,13 +1862,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>1469</v>
+        <v>1175</v>
       </c>
       <c r="C11" s="1">
-        <v>109662</v>
+        <v>65333</v>
       </c>
       <c r="D11" s="1">
-        <v>391672</v>
+        <v>70456</v>
       </c>
       <c r="E11" s="1">
         <v>1633</v>
@@ -1960,13 +1960,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>1175</v>
+        <v>1332</v>
       </c>
       <c r="C12" s="1">
-        <v>65333</v>
+        <v>77745</v>
       </c>
       <c r="D12" s="1">
-        <v>70456</v>
+        <v>85159</v>
       </c>
       <c r="E12" s="1">
         <v>1224</v>
@@ -2058,13 +2058,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>1332</v>
+        <v>862</v>
       </c>
       <c r="C13" s="1">
-        <v>77745</v>
+        <v>41657</v>
       </c>
       <c r="D13" s="1">
-        <v>85159</v>
+        <v>69696</v>
       </c>
       <c r="E13" s="1">
         <v>1404</v>
@@ -2156,13 +2156,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="C14" s="1">
-        <v>41657</v>
+        <v>44062</v>
       </c>
       <c r="D14" s="1">
-        <v>69696</v>
+        <v>220072</v>
       </c>
       <c r="E14" s="1">
         <v>827</v>
@@ -2254,13 +2254,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>872</v>
+        <v>1283</v>
       </c>
       <c r="C15" s="1">
-        <v>44062</v>
+        <v>73721</v>
       </c>
       <c r="D15" s="1">
-        <v>220072</v>
+        <v>86213</v>
       </c>
       <c r="E15" s="1">
         <v>854</v>
@@ -2352,13 +2352,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="C16" s="1">
-        <v>73721</v>
+        <v>62088</v>
       </c>
       <c r="D16" s="1">
-        <v>86213</v>
+        <v>1052827</v>
       </c>
       <c r="E16" s="1">
         <v>1279</v>
@@ -2450,13 +2450,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>1267</v>
+        <v>1223</v>
       </c>
       <c r="C17" s="1">
-        <v>62088</v>
+        <v>65695</v>
       </c>
       <c r="D17" s="1">
-        <v>1052827</v>
+        <v>102745</v>
       </c>
       <c r="E17" s="1">
         <v>1327</v>
@@ -2548,13 +2548,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="C18" s="1">
-        <v>65695</v>
+        <v>56663</v>
       </c>
       <c r="D18" s="1">
-        <v>102745</v>
+        <v>122508</v>
       </c>
       <c r="E18" s="1">
         <v>1166</v>
@@ -2646,13 +2646,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>1264</v>
+        <v>1118</v>
       </c>
       <c r="C19" s="1">
-        <v>56663</v>
+        <v>46996</v>
       </c>
       <c r="D19" s="1">
-        <v>122508</v>
+        <v>63510</v>
       </c>
       <c r="E19" s="1">
         <v>1293</v>
@@ -2744,13 +2744,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>1118</v>
+        <v>1407</v>
       </c>
       <c r="C20" s="1">
-        <v>46996</v>
+        <v>115347</v>
       </c>
       <c r="D20" s="1">
-        <v>63510</v>
+        <v>104059</v>
       </c>
       <c r="E20" s="1">
         <v>1131</v>
@@ -2842,13 +2842,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>1407</v>
+        <v>1098</v>
       </c>
       <c r="C21" s="1">
-        <v>115347</v>
+        <v>66129</v>
       </c>
       <c r="D21" s="1">
-        <v>104059</v>
+        <v>72404</v>
       </c>
       <c r="E21" s="1">
         <v>1655</v>
@@ -2940,13 +2940,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>1098</v>
+        <v>825</v>
       </c>
       <c r="C22" s="1">
-        <v>66129</v>
+        <v>45221</v>
       </c>
       <c r="D22" s="1">
-        <v>72404</v>
+        <v>181194</v>
       </c>
       <c r="E22" s="1">
         <v>993</v>
@@ -3038,13 +3038,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>825</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="1">
-        <v>45221</v>
+        <v>65471</v>
       </c>
       <c r="D23" s="1">
-        <v>181194</v>
+        <v>933248</v>
       </c>
       <c r="E23" s="1">
         <v>857</v>
@@ -3136,13 +3136,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="1">
-        <v>1006</v>
+        <v>837</v>
       </c>
       <c r="C24" s="1">
-        <v>65471</v>
+        <v>41144</v>
       </c>
       <c r="D24" s="1">
-        <v>933248</v>
+        <v>95915</v>
       </c>
       <c r="E24" s="1">
         <v>960</v>
@@ -3234,13 +3234,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="C25" s="1">
-        <v>41144</v>
+        <v>38492</v>
       </c>
       <c r="D25" s="1">
-        <v>95915</v>
+        <v>496147</v>
       </c>
       <c r="E25" s="1">
         <v>866</v>
@@ -3332,13 +3332,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>810</v>
+        <v>733</v>
       </c>
       <c r="C26" s="1">
-        <v>38492</v>
+        <v>41802</v>
       </c>
       <c r="D26" s="1">
-        <v>496147</v>
+        <v>134794</v>
       </c>
       <c r="E26" s="1">
         <v>876</v>
@@ -3430,13 +3430,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="C27" s="1">
-        <v>41802</v>
+        <v>45524</v>
       </c>
       <c r="D27" s="1">
-        <v>134794</v>
+        <v>175234</v>
       </c>
       <c r="E27" s="1">
         <v>713</v>
@@ -3528,13 +3528,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="1">
-        <v>821</v>
+        <v>880</v>
       </c>
       <c r="C28" s="1">
-        <v>45524</v>
+        <v>53038</v>
       </c>
       <c r="D28" s="1">
-        <v>175234</v>
+        <v>842207</v>
       </c>
       <c r="E28" s="1">
         <v>839</v>
@@ -3626,13 +3626,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="1">
-        <v>880</v>
+        <v>824</v>
       </c>
       <c r="C29" s="1">
-        <v>53038</v>
+        <v>44609</v>
       </c>
       <c r="D29" s="1">
-        <v>842207</v>
+        <v>348582</v>
       </c>
       <c r="E29" s="1">
         <v>936</v>
@@ -3724,13 +3724,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="C30" s="1">
-        <v>44609</v>
+        <v>34910</v>
       </c>
       <c r="D30" s="1">
-        <v>348582</v>
+        <v>153174</v>
       </c>
       <c r="E30" s="1">
         <v>916</v>
@@ -3822,13 +3822,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="1">
-        <v>842</v>
+        <v>1147</v>
       </c>
       <c r="C31" s="1">
-        <v>34910</v>
+        <v>52684</v>
       </c>
       <c r="D31" s="1">
-        <v>153174</v>
+        <v>64771</v>
       </c>
       <c r="E31" s="1">
         <v>945</v>
@@ -3920,13 +3920,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>1147</v>
+        <v>1234</v>
       </c>
       <c r="C32" s="1">
-        <v>52684</v>
+        <v>68731</v>
       </c>
       <c r="D32" s="1">
-        <v>64771</v>
+        <v>9830420</v>
       </c>
       <c r="E32" s="1">
         <v>1161</v>
@@ -4018,13 +4018,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="1">
-        <v>1234</v>
+        <v>1270</v>
       </c>
       <c r="C33" s="1">
-        <v>68731</v>
+        <v>56623</v>
       </c>
       <c r="D33" s="1">
-        <v>9830420</v>
+        <v>73981</v>
       </c>
       <c r="E33" s="1">
         <v>1273</v>
@@ -19499,12 +19499,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
@@ -19513,12 +19513,12 @@
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
